--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luukv\Documents\GitHub\i-project-documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidde\Documents\GitHub\i-project-documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F724D8D2-E95C-4654-BE4A-AFA96DE61325}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B049756F-F2D3-488D-A13A-0C142C1A0DC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
   </bookViews>
   <sheets>
     <sheet name="Dylan" sheetId="1" r:id="rId1"/>
     <sheet name="Sven" sheetId="2" r:id="rId2"/>
-    <sheet name="Axel " sheetId="3" r:id="rId3"/>
-    <sheet name="Hidde" sheetId="4" r:id="rId4"/>
+    <sheet name="Hidde" sheetId="4" r:id="rId3"/>
+    <sheet name="Axel" sheetId="6" r:id="rId4"/>
     <sheet name="Luuk" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>Wanneer</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>Tijd (begin-eind)</t>
+  </si>
+  <si>
+    <t>9:00 - 10:15</t>
+  </si>
+  <si>
+    <t>Klassikale kennismaking</t>
+  </si>
+  <si>
+    <t>10:15 - 11:00</t>
+  </si>
+  <si>
+    <t>Opzetten dashboard, github, trello</t>
+  </si>
+  <si>
+    <t>11:00 - 11:45</t>
+  </si>
+  <si>
+    <t>Layout onderzoeksrapport</t>
   </si>
 </sst>
 </file>
@@ -82,11 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,7 +122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -398,18 +418,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598384F0-0ABC-48D4-A479-0BADAA19C6E2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D37:D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="201.140625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="201.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,6 +442,34 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -430,18 +479,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69344314-4B41-45CB-8DC8-8CB30B4629BF}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="201.140625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="201.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,6 +503,48 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -461,19 +553,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71D9F2C-E26B-4CAD-A6F0-957EE46AD6E6}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54B181-1599-42A3-999A-303192C94EE7}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="201.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="201.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,6 +578,48 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -493,19 +628,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54B181-1599-42A3-999A-303192C94EE7}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376F022-5CFC-4BD3-AAFD-88E0BEC6D656}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="201.140625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="201.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,6 +653,34 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -526,18 +690,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5AD123-7CEF-48ED-BF33-8B65E6B534BE}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="201.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="201.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,6 +714,34 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidde\Documents\GitHub\i-project-documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan zweers\Documents\GitHub\i-project-documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B049756F-F2D3-488D-A13A-0C142C1A0DC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF990C2-2D42-44AA-B8A4-1DBE41F80276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
   </bookViews>
   <sheets>
     <sheet name="Dylan" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
   <si>
     <t>Wanneer</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Layout onderzoeksrapport</t>
+  </si>
+  <si>
+    <t>11:00 - 13:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">framworks zoeken en in document zetten met spesifitacties </t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -122,7 +128,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598384F0-0ABC-48D4-A479-0BADAA19C6E2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,6 +478,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -481,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69344314-4B41-45CB-8DC8-8CB30B4629BF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan zweers\Documents\GitHub\i-project-documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanbe\OneDrive\Documenten\GitHub\i-project-documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF990C2-2D42-44AA-B8A4-1DBE41F80276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11139624-308C-466E-BFD1-1E72A739E987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
   </bookViews>
   <sheets>
     <sheet name="Dylan" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Hidde" sheetId="4" r:id="rId3"/>
     <sheet name="Axel" sheetId="6" r:id="rId4"/>
     <sheet name="Luuk" sheetId="5" r:id="rId5"/>
+    <sheet name="Groepslogboek" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>Wanneer</t>
   </si>
@@ -71,6 +72,36 @@
   </si>
   <si>
     <t xml:space="preserve">framworks zoeken en in document zetten met spesifitacties </t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>Eerste kennismaking Sjors</t>
+  </si>
+  <si>
+    <t>Wie</t>
+  </si>
+  <si>
+    <t>groep</t>
+  </si>
+  <si>
+    <t>9.00 - 10.15</t>
+  </si>
+  <si>
+    <t>10.15 - 11.00</t>
+  </si>
+  <si>
+    <t>opzet scrumbord, eerste ideeën ronde</t>
+  </si>
+  <si>
+    <t>induvidueel</t>
+  </si>
+  <si>
+    <t>11.00 - 12.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individuele begin </t>
   </si>
 </sst>
 </file>
@@ -426,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598384F0-0ABC-48D4-A479-0BADAA19C6E2}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -502,7 +533,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376F022-5CFC-4BD3-AAFD-88E0BEC6D656}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -767,4 +798,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5989899-BCA4-4DF6-A5A0-7D4D6EFD92D3}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan zweers\Documents\GitHub\i-project-documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel\Documents\GitHub\i-project-documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF990C2-2D42-44AA-B8A4-1DBE41F80276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A5013-884F-46A4-9B8A-A1AF76736E0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
   </bookViews>
   <sheets>
     <sheet name="Dylan" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
     <t>Wanneer</t>
   </si>
@@ -71,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">framworks zoeken en in document zetten met spesifitacties </t>
+  </si>
+  <si>
+    <t>Frame works zoeken en in document zetten ter voorbereiding van pakketselectie</t>
   </si>
 </sst>
 </file>
@@ -426,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598384F0-0ABC-48D4-A479-0BADAA19C6E2}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,10 +651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376F022-5CFC-4BD3-AAFD-88E0BEC6D656}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,6 +703,20 @@
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel\Documents\GitHub\i-project-documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A5013-884F-46A4-9B8A-A1AF76736E0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD76586-4072-4C2E-843A-8BF163D1CEA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Wanneer</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Frame works zoeken en in document zetten ter voorbereiding van pakketselectie</t>
+  </si>
+  <si>
+    <t>11:00 - 12:05</t>
+  </si>
+  <si>
+    <t>12:05 - 14:30</t>
+  </si>
+  <si>
+    <t>Plan van aanpak</t>
   </si>
 </sst>
 </file>
@@ -651,10 +660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376F022-5CFC-4BD3-AAFD-88E0BEC6D656}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,13 +719,27 @@
         <v>43570</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>4.3099999999999996</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel\Documents\GitHub\i-project-documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidde\Documents\GitHub\i-project-documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD76586-4072-4C2E-843A-8BF163D1CEA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0E74B-640B-4814-8E3D-BB064C3451F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{77187DB8-9F3D-4F4B-A738-FEA51153E822}"/>
   </bookViews>
   <sheets>
     <sheet name="Dylan" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
   <si>
     <t>Wanneer</t>
   </si>
@@ -69,9 +69,6 @@
     <t>11:00 - 13:05</t>
   </si>
   <si>
-    <t xml:space="preserve">framworks zoeken en in document zetten met spesifitacties </t>
-  </si>
-  <si>
     <t>Frame works zoeken en in document zetten ter voorbereiding van pakketselectie</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Plan van aanpak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frameworks zoeken en in document zetten met spesifitacties </t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598384F0-0ABC-48D4-A479-0BADAA19C6E2}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,21 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -510,7 +524,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69344314-4B41-45CB-8DC8-8CB30B4629BF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:D5"/>
@@ -578,6 +592,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -585,10 +613,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54B181-1599-42A3-999A-303192C94EE7}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,6 +681,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -662,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6376F022-5CFC-4BD3-AAFD-88E0BEC6D656}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,13 +761,13 @@
         <v>43570</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>4.3099999999999996</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -733,13 +775,13 @@
         <v>43570</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -749,10 +791,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5AD123-7CEF-48ED-BF33-8B65E6B534BE}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,6 +845,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
